--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UiPath\Learn04_Naver_증권정보_수집_REF\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICTCoC\Documents\UiPath\RPA_REF_Test\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9389F43-DB7D-4140-8C7D-D331EE74F992}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -220,42 +221,6 @@
   </si>
   <si>
     <t>MailFail</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;div&gt;
-    &lt;span&gt;안녕하십니까&lt;/span&gt;
-&lt;/div&gt;
-&lt;div&gt;
-    &lt;span&gt;&lt;br&gt;&lt;/span&gt;
-&lt;/div&gt;
-&lt;div&gt;
-    &lt;span&gt;{0}_주가정보 결과 송부드립니다. &lt;/span&gt;
-&lt;div&gt;
-&lt;div&gt;
-    &lt;span&gt;&lt;br&gt;&lt;/span&gt;
-&lt;/div&gt;
-&lt;div&gt;
-    &lt;span&gt;감사합니다.&lt;/span&gt;
-&lt;/div&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;div&gt;
-    &lt;span&gt;안녕하십니까&lt;/span&gt;
-&lt;/div&gt;
-&lt;div&gt;
-    &lt;span&gt;&lt;br&gt;&lt;/span&gt;
-&lt;/div&gt;
-&lt;div&gt;
-    &lt;span&gt;{0}_주가정보 조회 실패로 확인 바랍니다. &lt;/span&gt;
-&lt;div&gt;
-&lt;div&gt;
-    &lt;span&gt;&lt;br&gt;&lt;/span&gt;
-&lt;/div&gt;
-&lt;div&gt;
-    &lt;span&gt;감사합니다.&lt;/span&gt;
-&lt;/div&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -309,11 +274,59 @@
     </r>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>&lt;div&gt;
+    &lt;span&gt;안녕하십니까&lt;/span&gt;
+&lt;/div&gt;
+&lt;div&gt;
+    &lt;span&gt;&lt;br&gt;&lt;/span&gt;
+&lt;/div&gt;
+&lt;div&gt;
+    &lt;span&gt;{0}_주가정보 조회 실패작업이 있으니 확인 바랍니다. &lt;/span&gt;
+&lt;div&gt;
+&lt;div&gt;
+    &lt;span&gt;&lt;br&gt;&lt;/span&gt;
+&lt;/div&gt;
+&lt;div&gt;
+    &lt;span&gt;성공 : {1} / {2} &lt;/span&gt;
+&lt;div&gt;
+&lt;div&gt;
+    &lt;span&gt;실패 : {3} / {4} &lt;/span&gt;
+&lt;div&gt;
+&lt;div&gt;
+    &lt;span&gt;감사합니다.&lt;/span&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+    &lt;span&gt;안녕하십니까&lt;/span&gt;
+&lt;/div&gt;
+&lt;div&gt;
+    &lt;span&gt;&lt;br&gt;&lt;/span&gt;
+&lt;/div&gt;
+&lt;div&gt;
+    &lt;span&gt;{0}_주가정보 결과 송부드립니다. &lt;/span&gt;
+&lt;div&gt;
+&lt;div&gt;
+    &lt;span&gt;&lt;br&gt;&lt;/span&gt;
+&lt;/div&gt;
+&lt;div&gt;
+    &lt;span&gt;성공 : {1}  / {2} &lt;/span&gt;
+&lt;div&gt;
+&lt;div&gt;
+    &lt;span&gt;실패 : {3} / {4} &lt;/span&gt;
+&lt;div&gt;
+&lt;div&gt;
+    &lt;span&gt;감사합니다.&lt;/span&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -494,7 +507,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -805,17 +818,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="62.28515625" customWidth="1"/>
+    <col min="2" max="2" width="66.5703125" customWidth="1"/>
     <col min="3" max="3" width="81.42578125" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -899,23 +912,23 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -949,23 +962,23 @@
         <v>49</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="217.5" customHeight="1">
+    <row r="14" spans="1:26" ht="309" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="222.75" customHeight="1">
+    <row r="15" spans="1:26" ht="316.5" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C15" s="8"/>
     </row>
@@ -1963,7 +1976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3126,7 +3139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
